--- a/DBInput/Extruders.xlsx
+++ b/DBInput/Extruders.xlsx
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>15873.01587301587</v>
+        <v>14084.50704225352</v>
       </c>
       <c r="F425" t="n">
         <v>0.001</v>
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>17857.14285714286</v>
+        <v>14084.50704225352</v>
       </c>
       <c r="F700" t="n">
         <v>0.001</v>
@@ -20060,7 +20060,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>17857.14285714286</v>
+        <v>14084.50704225352</v>
       </c>
       <c r="F701" t="n">
         <v>0.001</v>
@@ -36692,7 +36692,7 @@
         </is>
       </c>
       <c r="E1295" t="n">
-        <v>4000</v>
+        <v>12048.19277108434</v>
       </c>
       <c r="F1295" t="n">
         <v>0.001</v>
